--- a/medicine/Sexualité et sexologie/Des_gens_bien_ordinaires_(série_télévisée)/Des_gens_bien_ordinaires_(série_télévisée).xlsx
+++ b/medicine/Sexualité et sexologie/Des_gens_bien_ordinaires_(série_télévisée)/Des_gens_bien_ordinaires_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Des gens bien ordinaires est une Série télévisée française dystopique écrite et réalisée par Ovidie et diffusée depuis le 6 juin 2022 sur Canal+.
-Le 20 novembre 2023, la série remporte le International Emmy Award de la meilleure série courte, devenant la première série française à être récompensée dans cette catégorie[1],[2],[3].
-Le tournage d'une deuxième saison est annoncé le 6 octobre 2023[4],[5].
+Le 20 novembre 2023, la série remporte le International Emmy Award de la meilleure série courte, devenant la première série française à être récompensée dans cette catégorie.
+Le tournage d'une deuxième saison est annoncé le 6 octobre 2023,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un monde dystopique où les femmes détiennent le pouvoir, Romain, un étudiant en sociologie de 18 ans, est attiré par les projecteurs de l'industrie pornographique, qu'il voit comme un chemin vers l'émancipation et la réappropriation de son propre corps.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,31 +560,180 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Jérémy Gillet : Romain
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jérémy Gillet : Romain
 Sophie-Marie Larrouy : Andrée
-Raïka Hazanavicius : Isaure
-Acteurs récurrents et invités
-Saison 1
-Romane Bohringer : Dominique, une réalisatrice de films pornographiques
+Raïka Hazanavicius : Isaure</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents et invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Romane Bohringer : Dominique, une réalisatrice de films pornographiques
 Agathe Bonitzer : Linda, la petite-amie de Romain
 Arthur Dupont : Roméo, un acteur porno en disgrâce
 Andréa Bescond : Valéry, une productrice
 Anne Benoît : Josette Rigaud, une réalisatrice lubrique
 Pablo Cobo : Dylan
-Fadily Camara : Céline, la régisseuse
-Saison 2
-Andranic Manet : Falco
+Fadily Camara : Céline, la régisseuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents et invités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Andranic Manet : Falco
 Aloïse Sauvage : Sharon
 Judith Godrèche : Thérèse Robinson
 Corinne Masiero : Mélissa
 Olivia Côte : Maryse
 Thomas VDB : Stéphane
-Suzanne de Baecque : Une réalisatrice
-Tournage
-Le tournage de la saison 1 a lieu du 8 au 29 octobre 2021, à Angoulême et ses environs[6],[7].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
+Suzanne de Baecque : Une réalisatrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage de la saison 1 a lieu du 8 au 29 octobre 2021, à Angoulême et ses environs,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
 Titre français : Des gens bien ordinaires
 Genre : Dystopie, Comédie dramatique
 Production : Marc Berdugo, Barbara Conforti
@@ -587,34 +750,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Des_gens_bien_ordinaires_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Des_gens_bien_ordinaires_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Distinction
-International Emmy Award 2023 : prix de la meilleure série courte[8],[9],[10].</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>International Emmy Award 2023 : prix de la meilleure série courte.</t>
         </is>
       </c>
     </row>
